--- a/medicine/Mort/Nécropole_nationale_du_Fort_des_Dunes/Nécropole_nationale_du_Fort_des_Dunes.xlsx
+++ b/medicine/Mort/Nécropole_nationale_du_Fort_des_Dunes/Nécropole_nationale_du_Fort_des_Dunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_du_Fort_des_Dunes</t>
+          <t>Nécropole_nationale_du_Fort_des_Dunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale du Fort des Dunes est un cimetière militaire français situé à Leffrinckoucke, dans le Nord, en France. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_du_Fort_des_Dunes</t>
+          <t>Nécropole_nationale_du_Fort_des_Dunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé le long de la ligne de Dunkerque-Locale à Bray-Dunes, la nécropole nationale est aménagée à côté du fort des Dunes[1] de 1957 à 1959 en regroupant les corps des militaires morts durant l'opération Dynamo. Le cimetière regroupe en 2021 cent-quatre-vingt-onze tombes individuelles ainsi qu'un monument-ossuaire qui conserve les restes de dix-neuf français et six tchèques. Il y a donc cent-quatre-vingt-douze tombes pour deux-cent-seize morts.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé le long de la ligne de Dunkerque-Locale à Bray-Dunes, la nécropole nationale est aménagée à côté du fort des Dunes de 1957 à 1959 en regroupant les corps des militaires morts durant l'opération Dynamo. Le cimetière regroupe en 2021 cent-quatre-vingt-onze tombes individuelles ainsi qu'un monument-ossuaire qui conserve les restes de dix-neuf français et six tchèques. Il y a donc cent-quatre-vingt-douze tombes pour deux-cent-seize morts.
 Le général de division Louis Janssen est inhumé dans la tombe no 17, située tout au fond et au centre du cimetière.
 			Le monument-ossuaire.
 			La tombe de Louis Janssen (no 17).
